--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/002- Variation order for sprinklers.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/002- Variation order for sprinklers.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F6E148-BD6A-4854-9B2D-7960AF9D1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137ED6F-3977-4F7C-9CE2-09A2FCB37BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,8 +79,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -242,15 +242,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,25 +262,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,19 +289,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,13 +321,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,7 +821,7 @@
   <dimension ref="A7:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A26" sqref="A26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,11 +959,11 @@
         <v>13</v>
       </c>
       <c r="H25" s="17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(C25+D25+E25+F25)*H25</f>
-        <v>361200</v>
+        <v>330240</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="31" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -979,7 +979,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="30">
         <f>SUM(I25:I25)</f>
-        <v>361200</v>
+        <v>330240</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="32"/>
